--- a/4_(DEEP_LEARNING)_Apples_of_different_varieties_recognition/Aron/model_structure/model_structure.xlsx
+++ b/4_(DEEP_LEARNING)_Apples_of_different_varieties_recognition/Aron/model_structure/model_structure.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aronm\OneDrive\Dokumenty\_ARON\5.Nauka\DS\99_projekty\0_RIVA_GitHub\4_(DEEP_LEARNING)_Apples_of_different_varieties_recognition\Aron\model_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F56AB5-2811-4D62-812D-6FAA713E1DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B594F5-0955-4215-9D41-EE19FF3D5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{891A743B-67B9-4153-990D-2EC44CD70F1B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{891A743B-67B9-4153-990D-2EC44CD70F1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters" sheetId="3" r:id="rId2"/>
-    <sheet name="model_structure" sheetId="2" r:id="rId3"/>
+    <sheet name="model_structure" sheetId="2" r:id="rId1"/>
+    <sheet name="matrix" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,73 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
-  <si>
-    <t>_________________________________________________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Layer (type)                Output Shape              Param #   </t>
-  </si>
-  <si>
-    <t>=================================================================</t>
-  </si>
-  <si>
-    <t>                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> )                                                               </t>
-  </si>
-  <si>
-    <t>Model: "sequential"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conv2d (Conv2D)             (None, 320, 258, 8)       224       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> max_pooling2d (MaxPooling2D  (None, 160, 129, 8)      0         </t>
-  </si>
-  <si>
-    <t> conv2d_1 (Conv2D)           (None, 160, 129, 16)      1168      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> max_pooling2d_1 (MaxPooling  (None, 80, 65, 16)       0         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2D)                                                             </t>
-  </si>
-  <si>
-    <t> conv2d_2 (Conv2D)           (None, 80, 65, 32)        4640      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> max_pooling2d_2 (MaxPooling  (None, 40, 33, 32)       0         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conv2d_3 (Conv2D)           (None, 40, 33, 64)        18496     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> max_pooling2d_3 (MaxPooling  (None, 20, 17, 64)       0         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flatten (Flatten)           (None, 21760)             0         </t>
-  </si>
-  <si>
-    <t> dense (Dense)               (None, 8)                 174088    </t>
-  </si>
-  <si>
-    <t> dense_1 (Dense)             (None, 6)                 54        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> softmax (Softmax)           (None, 6)                 0         </t>
-  </si>
-  <si>
-    <t>Total params: 198,670</t>
-  </si>
-  <si>
-    <t>Trainable params: 198,670</t>
-  </si>
-  <si>
-    <t>Non-trainable params: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>MaxPooling2D</t>
   </si>
@@ -112,15 +45,6 @@
     <t>Conv2D</t>
   </si>
   <si>
-    <t>Conv2D__(0)</t>
-  </si>
-  <si>
-    <t>MaxPooling2D__(0)</t>
-  </si>
-  <si>
-    <t>Layer number</t>
-  </si>
-  <si>
     <t> Layer type</t>
   </si>
   <si>
@@ -130,33 +54,6 @@
     <t xml:space="preserve">Param # </t>
   </si>
   <si>
-    <t>(None, 320, 258, 8)</t>
-  </si>
-  <si>
-    <t>(None, 160, 129, 16)</t>
-  </si>
-  <si>
-    <t>(None, 80, 65, 32)</t>
-  </si>
-  <si>
-    <t>(None, 40, 33, 64)</t>
-  </si>
-  <si>
-    <t>(None, 160, 129, 8)</t>
-  </si>
-  <si>
-    <t>(None, 80, 65, 16)</t>
-  </si>
-  <si>
-    <t>(None, 40, 33, 32)</t>
-  </si>
-  <si>
-    <t>(None, 20, 17, 64)</t>
-  </si>
-  <si>
-    <t>(None, 21760)</t>
-  </si>
-  <si>
     <t>(None, 8)</t>
   </si>
   <si>
@@ -170,6 +67,75 @@
   </si>
   <si>
     <t>Softmax</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Macro avg</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Weighted avg</t>
+  </si>
+  <si>
+    <t>(None, 258, 320, 4)</t>
+  </si>
+  <si>
+    <t>(None, 129, 160, 4)</t>
+  </si>
+  <si>
+    <t>(None, 129, 160, 8)</t>
+  </si>
+  <si>
+    <t>(None, 65, 80, 8)</t>
+  </si>
+  <si>
+    <t>(None, 65, 80, 16)</t>
+  </si>
+  <si>
+    <t>(None, 33, 40, 16)</t>
+  </si>
+  <si>
+    <t>(None, 21120)</t>
   </si>
 </sst>
 </file>
@@ -230,12 +196,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,296 +521,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D3215-B4F7-4AFE-80C6-79E2017191C9}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032879AA-721F-469B-A76D-D06590363DFD}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4BF4AD-D898-4D6C-876B-7F78C8D22C58}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032879AA-721F-469B-A76D-D06590363DFD}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -848,32 +534,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>224</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -881,21 +567,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>1168</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -903,21 +589,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>4640</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -925,68 +611,215 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>18496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>168968</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>174088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FEAF78-568C-4A3B-9CF8-CDCEB01B07D7}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
